--- a/data/142/STANOR/09183 Gross fixed capital formation by quarter industry and contents(Asset type).xlsx
+++ b/data/142/STANOR/09183 Gross fixed capital formation by quarter industry and contents(Asset type).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <x:si>
     <x:t>09183: Gross fixed capital formation, by contents, industry and quarter</x:t>
   </x:si>
@@ -544,6 +544,9 @@
     <x:t>2021K3</x:t>
   </x:si>
   <x:si>
+    <x:t>2021K4</x:t>
+  </x:si>
+  <x:si>
     <x:t>Current prices (NOK million)</x:t>
   </x:si>
   <x:si>
@@ -577,13 +580,13 @@
     <x:t>In the time series in volume, the figures from the base year and onwards are fixed price figures while data prior to the base year are chained volume figures. This implies that additivity in volume is lost prior to the base year.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Current prices (NOK million):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211119 08:00</x:t>
+    <x:t>20220216 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Constant 2019-prices (NOK million):</x:t>
@@ -1045,22 +1048,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:FU89"/>
+  <x:dimension ref="A1:FV89"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="177" width="8.300625" style="0" customWidth="1"/>
+    <x:col min="1" max="178" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:177">
+    <x:row r="1" spans="1:178">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:177">
+    <x:row r="3" spans="1:178">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -1586,13 +1588,16 @@
       <x:c r="FU3" s="2" t="s">
         <x:v>175</x:v>
       </x:c>
+      <x:c r="FV3" s="2" t="s">
+        <x:v>176</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:177">
+    <x:row r="4" spans="1:178">
       <x:c r="A4" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>8811</x:v>
@@ -2111,18 +2116,21 @@
         <x:v>122701</x:v>
       </x:c>
       <x:c r="FS4" s="3" t="n">
-        <x:v>98726</x:v>
+        <x:v>98572</x:v>
       </x:c>
       <x:c r="FT4" s="3" t="n">
-        <x:v>113560</x:v>
+        <x:v>113311</x:v>
       </x:c>
       <x:c r="FU4" s="3" t="n">
-        <x:v>112476</x:v>
+        <x:v>112371</x:v>
+      </x:c>
+      <x:c r="FV4" s="3" t="n">
+        <x:v>133445</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:177">
+    <x:row r="5" spans="1:178">
       <x:c r="B5" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>705</x:v>
@@ -2647,12 +2655,15 @@
         <x:v>19676</x:v>
       </x:c>
       <x:c r="FU5" s="3" t="n">
-        <x:v>24215</x:v>
+        <x:v>23571</x:v>
+      </x:c>
+      <x:c r="FV5" s="3" t="n">
+        <x:v>24562</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:177">
+    <x:row r="6" spans="1:178">
       <x:c r="B6" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>1174</x:v>
@@ -3177,12 +3188,15 @@
         <x:v>24188</x:v>
       </x:c>
       <x:c r="FU6" s="3" t="n">
-        <x:v>25006</x:v>
+        <x:v>20213</x:v>
+      </x:c>
+      <x:c r="FV6" s="3" t="n">
+        <x:v>20203</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:177">
+    <x:row r="7" spans="1:178">
       <x:c r="B7" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>835</x:v>
@@ -3701,18 +3715,21 @@
         <x:v>6627</x:v>
       </x:c>
       <x:c r="FS7" s="3" t="n">
-        <x:v>8068</x:v>
+        <x:v>7501</x:v>
       </x:c>
       <x:c r="FT7" s="3" t="n">
-        <x:v>4612</x:v>
+        <x:v>4264</x:v>
       </x:c>
       <x:c r="FU7" s="3" t="n">
-        <x:v>4735</x:v>
+        <x:v>4660</x:v>
+      </x:c>
+      <x:c r="FV7" s="3" t="n">
+        <x:v>6008</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:177">
+    <x:row r="8" spans="1:178">
       <x:c r="B8" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>1683</x:v>
@@ -4231,18 +4248,21 @@
         <x:v>9740</x:v>
       </x:c>
       <x:c r="FS8" s="3" t="n">
-        <x:v>7497</x:v>
+        <x:v>7493</x:v>
       </x:c>
       <x:c r="FT8" s="3" t="n">
-        <x:v>10362</x:v>
+        <x:v>10355</x:v>
       </x:c>
       <x:c r="FU8" s="3" t="n">
-        <x:v>11536</x:v>
+        <x:v>11491</x:v>
+      </x:c>
+      <x:c r="FV8" s="3" t="n">
+        <x:v>10935</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:177">
+    <x:row r="9" spans="1:178">
       <x:c r="B9" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>4620</x:v>
@@ -4761,21 +4781,24 @@
         <x:v>38052</x:v>
       </x:c>
       <x:c r="FS9" s="3" t="n">
-        <x:v>28442</x:v>
+        <x:v>28467</x:v>
       </x:c>
       <x:c r="FT9" s="3" t="n">
-        <x:v>30835</x:v>
+        <x:v>30820</x:v>
       </x:c>
       <x:c r="FU9" s="3" t="n">
-        <x:v>33137</x:v>
+        <x:v>33408</x:v>
+      </x:c>
+      <x:c r="FV9" s="3" t="n">
+        <x:v>44555</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:177">
+    <x:row r="10" spans="1:178">
       <x:c r="A10" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>53881</x:v>
@@ -5294,18 +5317,21 @@
         <x:v>119463</x:v>
       </x:c>
       <x:c r="FS10" s="3" t="n">
-        <x:v>94522</x:v>
+        <x:v>94363</x:v>
       </x:c>
       <x:c r="FT10" s="3" t="n">
-        <x:v>106021</x:v>
+        <x:v>105764</x:v>
       </x:c>
       <x:c r="FU10" s="3" t="n">
-        <x:v>101538</x:v>
+        <x:v>101546</x:v>
+      </x:c>
+      <x:c r="FV10" s="3" t="n">
+        <x:v>119311</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:177">
+    <x:row r="11" spans="1:178">
       <x:c r="B11" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>4881</x:v>
@@ -5827,15 +5853,18 @@
         <x:v>21429</x:v>
       </x:c>
       <x:c r="FT11" s="3" t="n">
-        <x:v>18288</x:v>
+        <x:v>18293</x:v>
       </x:c>
       <x:c r="FU11" s="3" t="n">
-        <x:v>22721</x:v>
+        <x:v>22126</x:v>
+      </x:c>
+      <x:c r="FV11" s="3" t="n">
+        <x:v>22455</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:177">
+    <x:row r="12" spans="1:178">
       <x:c r="B12" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>6763</x:v>
@@ -6354,18 +6383,21 @@
         <x:v>20806</x:v>
       </x:c>
       <x:c r="FS12" s="3" t="n">
-        <x:v>16584</x:v>
+        <x:v>16551</x:v>
       </x:c>
       <x:c r="FT12" s="3" t="n">
-        <x:v>22424</x:v>
+        <x:v>22429</x:v>
       </x:c>
       <x:c r="FU12" s="3" t="n">
-        <x:v>23628</x:v>
+        <x:v>19037</x:v>
+      </x:c>
+      <x:c r="FV12" s="3" t="n">
+        <x:v>18818</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:177">
+    <x:row r="13" spans="1:178">
       <x:c r="B13" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>8672</x:v>
@@ -6884,18 +6916,21 @@
         <x:v>5919</x:v>
       </x:c>
       <x:c r="FS13" s="3" t="n">
-        <x:v>7327</x:v>
+        <x:v>7045</x:v>
       </x:c>
       <x:c r="FT13" s="3" t="n">
-        <x:v>4191</x:v>
+        <x:v>3847</x:v>
       </x:c>
       <x:c r="FU13" s="3" t="n">
-        <x:v>4177</x:v>
+        <x:v>3987</x:v>
+      </x:c>
+      <x:c r="FV13" s="3" t="n">
+        <x:v>5439</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:177">
+    <x:row r="14" spans="1:178">
       <x:c r="B14" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>3397</x:v>
@@ -7414,18 +7449,21 @@
         <x:v>9832</x:v>
       </x:c>
       <x:c r="FS14" s="3" t="n">
-        <x:v>7536</x:v>
+        <x:v>7534</x:v>
       </x:c>
       <x:c r="FT14" s="3" t="n">
         <x:v>10571</x:v>
       </x:c>
       <x:c r="FU14" s="3" t="n">
-        <x:v>11792</x:v>
+        <x:v>11815</x:v>
+      </x:c>
+      <x:c r="FV14" s="3" t="n">
+        <x:v>11282</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:177">
+    <x:row r="15" spans="1:178">
       <x:c r="B15" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>5955</x:v>
@@ -7944,21 +7982,24 @@
         <x:v>36475</x:v>
       </x:c>
       <x:c r="FS15" s="3" t="n">
-        <x:v>27175</x:v>
+        <x:v>27189</x:v>
       </x:c>
       <x:c r="FT15" s="3" t="n">
-        <x:v>29317</x:v>
+        <x:v>29296</x:v>
       </x:c>
       <x:c r="FU15" s="3" t="n">
-        <x:v>31081</x:v>
+        <x:v>31330</x:v>
+      </x:c>
+      <x:c r="FV15" s="3" t="n">
+        <x:v>41519</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:177">
+    <x:row r="16" spans="1:178">
       <x:c r="A16" s="2" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>59285</x:v>
@@ -8453,42 +8494,45 @@
         <x:v>107077</x:v>
       </x:c>
       <x:c r="FK16" s="3" t="n">
-        <x:v>108885</x:v>
+        <x:v>108910</x:v>
       </x:c>
       <x:c r="FL16" s="3" t="n">
-        <x:v>110057</x:v>
+        <x:v>110197</x:v>
       </x:c>
       <x:c r="FM16" s="3" t="n">
-        <x:v>110016</x:v>
+        <x:v>109893</x:v>
       </x:c>
       <x:c r="FN16" s="3" t="n">
-        <x:v>110650</x:v>
+        <x:v>110587</x:v>
       </x:c>
       <x:c r="FO16" s="3" t="n">
-        <x:v>107394</x:v>
+        <x:v>107448</x:v>
       </x:c>
       <x:c r="FP16" s="3" t="n">
-        <x:v>105539</x:v>
+        <x:v>105689</x:v>
       </x:c>
       <x:c r="FQ16" s="3" t="n">
-        <x:v>104459</x:v>
+        <x:v>104325</x:v>
       </x:c>
       <x:c r="FR16" s="3" t="n">
-        <x:v>107410</x:v>
+        <x:v>107325</x:v>
       </x:c>
       <x:c r="FS16" s="3" t="n">
-        <x:v>105068</x:v>
+        <x:v>104971</x:v>
       </x:c>
       <x:c r="FT16" s="3" t="n">
-        <x:v>106257</x:v>
+        <x:v>106171</x:v>
       </x:c>
       <x:c r="FU16" s="3" t="n">
-        <x:v>102807</x:v>
+        <x:v>102672</x:v>
+      </x:c>
+      <x:c r="FV16" s="3" t="n">
+        <x:v>107113</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:177">
+    <x:row r="17" spans="1:178">
       <x:c r="B17" s="2" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>6572</x:v>
@@ -8983,42 +9027,45 @@
         <x:v>20613</x:v>
       </x:c>
       <x:c r="FK17" s="3" t="n">
-        <x:v>19860</x:v>
+        <x:v>19832</x:v>
       </x:c>
       <x:c r="FL17" s="3" t="n">
-        <x:v>21052</x:v>
+        <x:v>20914</x:v>
       </x:c>
       <x:c r="FM17" s="3" t="n">
-        <x:v>21550</x:v>
+        <x:v>21647</x:v>
       </x:c>
       <x:c r="FN17" s="3" t="n">
-        <x:v>23011</x:v>
+        <x:v>23062</x:v>
       </x:c>
       <x:c r="FO17" s="3" t="n">
-        <x:v>24461</x:v>
+        <x:v>24451</x:v>
       </x:c>
       <x:c r="FP17" s="3" t="n">
-        <x:v>22162</x:v>
+        <x:v>22005</x:v>
       </x:c>
       <x:c r="FQ17" s="3" t="n">
-        <x:v>19665</x:v>
+        <x:v>19793</x:v>
       </x:c>
       <x:c r="FR17" s="3" t="n">
-        <x:v>20423</x:v>
+        <x:v>20444</x:v>
       </x:c>
       <x:c r="FS17" s="3" t="n">
-        <x:v>22885</x:v>
+        <x:v>22892</x:v>
       </x:c>
       <x:c r="FT17" s="3" t="n">
-        <x:v>20175</x:v>
+        <x:v>20010</x:v>
       </x:c>
       <x:c r="FU17" s="3" t="n">
-        <x:v>21282</x:v>
+        <x:v>20838</x:v>
+      </x:c>
+      <x:c r="FV17" s="3" t="n">
+        <x:v>20536</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:177">
+    <x:row r="18" spans="1:178">
       <x:c r="B18" s="2" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>5888</x:v>
@@ -9537,18 +9584,21 @@
         <x:v>20806</x:v>
       </x:c>
       <x:c r="FS18" s="3" t="n">
-        <x:v>16584</x:v>
+        <x:v>16551</x:v>
       </x:c>
       <x:c r="FT18" s="3" t="n">
-        <x:v>22424</x:v>
+        <x:v>22429</x:v>
       </x:c>
       <x:c r="FU18" s="3" t="n">
-        <x:v>23628</x:v>
+        <x:v>19037</x:v>
+      </x:c>
+      <x:c r="FV18" s="3" t="n">
+        <x:v>18818</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:177">
+    <x:row r="19" spans="1:178">
       <x:c r="B19" s="2" t="s">
-        <x:v>180</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>8830</x:v>
@@ -10067,18 +10117,21 @@
         <x:v>5919</x:v>
       </x:c>
       <x:c r="FS19" s="3" t="n">
-        <x:v>7327</x:v>
+        <x:v>7045</x:v>
       </x:c>
       <x:c r="FT19" s="3" t="n">
-        <x:v>4191</x:v>
+        <x:v>3847</x:v>
       </x:c>
       <x:c r="FU19" s="3" t="n">
-        <x:v>4177</x:v>
+        <x:v>3987</x:v>
+      </x:c>
+      <x:c r="FV19" s="3" t="n">
+        <x:v>5439</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:177">
+    <x:row r="20" spans="1:178">
       <x:c r="B20" s="2" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>3847</x:v>
@@ -10573,42 +10626,45 @@
         <x:v>8136</x:v>
       </x:c>
       <x:c r="FK20" s="3" t="n">
-        <x:v>8109</x:v>
+        <x:v>8103</x:v>
       </x:c>
       <x:c r="FL20" s="3" t="n">
-        <x:v>11000</x:v>
+        <x:v>11003</x:v>
       </x:c>
       <x:c r="FM20" s="3" t="n">
-        <x:v>10810</x:v>
+        <x:v>10773</x:v>
       </x:c>
       <x:c r="FN20" s="3" t="n">
-        <x:v>9265</x:v>
+        <x:v>9306</x:v>
       </x:c>
       <x:c r="FO20" s="3" t="n">
-        <x:v>7527</x:v>
+        <x:v>7523</x:v>
       </x:c>
       <x:c r="FP20" s="3" t="n">
-        <x:v>9210</x:v>
+        <x:v>9214</x:v>
       </x:c>
       <x:c r="FQ20" s="3" t="n">
-        <x:v>9398</x:v>
+        <x:v>9354</x:v>
       </x:c>
       <x:c r="FR20" s="3" t="n">
-        <x:v>9482</x:v>
+        <x:v>9527</x:v>
       </x:c>
       <x:c r="FS20" s="3" t="n">
-        <x:v>8926</x:v>
+        <x:v>8921</x:v>
       </x:c>
       <x:c r="FT20" s="3" t="n">
-        <x:v>9759</x:v>
+        <x:v>9762</x:v>
       </x:c>
       <x:c r="FU20" s="3" t="n">
-        <x:v>11582</x:v>
+        <x:v>11558</x:v>
+      </x:c>
+      <x:c r="FV20" s="3" t="n">
+        <x:v>10949</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:177">
+    <x:row r="21" spans="1:178">
       <x:c r="B21" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>7311</x:v>
@@ -11103,300 +11159,307 @@
         <x:v>32433</x:v>
       </x:c>
       <x:c r="FK21" s="3" t="n">
-        <x:v>33517</x:v>
+        <x:v>33477</x:v>
       </x:c>
       <x:c r="FL21" s="3" t="n">
-        <x:v>33827</x:v>
+        <x:v>33859</x:v>
       </x:c>
       <x:c r="FM21" s="3" t="n">
-        <x:v>35071</x:v>
+        <x:v>35173</x:v>
       </x:c>
       <x:c r="FN21" s="3" t="n">
-        <x:v>34200</x:v>
+        <x:v>34110</x:v>
       </x:c>
       <x:c r="FO21" s="3" t="n">
-        <x:v>32927</x:v>
+        <x:v>32862</x:v>
       </x:c>
       <x:c r="FP21" s="3" t="n">
-        <x:v>33016</x:v>
+        <x:v>33068</x:v>
       </x:c>
       <x:c r="FQ21" s="3" t="n">
-        <x:v>31905</x:v>
+        <x:v>32038</x:v>
       </x:c>
       <x:c r="FR21" s="3" t="n">
-        <x:v>30071</x:v>
+        <x:v>29951</x:v>
       </x:c>
       <x:c r="FS21" s="3" t="n">
-        <x:v>32334</x:v>
+        <x:v>32264</x:v>
       </x:c>
       <x:c r="FT21" s="3" t="n">
-        <x:v>30411</x:v>
+        <x:v>30463</x:v>
       </x:c>
       <x:c r="FU21" s="3" t="n">
-        <x:v>31199</x:v>
+        <x:v>31610</x:v>
+      </x:c>
+      <x:c r="FV21" s="3" t="n">
+        <x:v>34936</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:177">
+    <x:row r="23" spans="1:178">
       <x:c r="A23" s="4" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:178">
+      <x:c r="A24" s="4" t="s">
+        <x:v>187</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:178">
+      <x:c r="A26" s="0" t="s">
+        <x:v>188</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:178">
+      <x:c r="A27" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:178">
+      <x:c r="A28" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:178">
+      <x:c r="A29" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:178">
+      <x:c r="A30" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:178">
+      <x:c r="A31" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:178">
+      <x:c r="A32" s="0" t="s">
+        <x:v>190</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:178">
+      <x:c r="A34" s="0" t="s">
+        <x:v>193</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:178">
+      <x:c r="A35" s="0" t="s">
+        <x:v>194</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:178">
+      <x:c r="A37" s="0" t="s">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:178">
+      <x:c r="A38" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:178">
+      <x:c r="A39" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:178">
+      <x:c r="A40" s="0" t="s">
+        <x:v>197</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:178">
+      <x:c r="A41" s="0" t="s">
+        <x:v>198</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:178">
+      <x:c r="A45" s="0" t="s">
+        <x:v>199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:178">
+      <x:c r="A47" s="0" t="s">
+        <x:v>200</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:178">
+      <x:c r="A48" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:178">
+      <x:c r="A49" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:178">
+      <x:c r="A50" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:178">
+      <x:c r="A51" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:178">
+      <x:c r="A52" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:178">
+      <x:c r="A53" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:178">
+      <x:c r="A54" s="0" t="s">
+        <x:v>202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:178">
+      <x:c r="A55" s="0" t="s">
+        <x:v>189</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:178">
+      <x:c r="A56" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:178">
+      <x:c r="A57" s="0" t="s">
+        <x:v>191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:178">
+      <x:c r="A58" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:178">
+      <x:c r="A59" s="0" t="s">
+        <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:178">
+      <x:c r="A60" s="0" t="s">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:178">
+      <x:c r="A62" s="0" t="s">
+        <x:v>204</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:178">
+      <x:c r="A63" s="0" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:178">
+      <x:c r="A64" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:178">
+      <x:c r="A65" s="0" t="s">
+        <x:v>184</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:178">
+      <x:c r="A66" s="0" t="s">
+        <x:v>205</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:178">
+      <x:c r="A67" s="0" t="s">
         <x:v>185</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:177">
-      <x:c r="A24" s="4" t="s">
-        <x:v>186</x:v>
+    <x:row r="68" spans="1:178">
+      <x:c r="A68" s="0" t="s">
+        <x:v>205</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:177">
-      <x:c r="A26" s="0" t="s">
-        <x:v>187</x:v>
+    <x:row r="71" spans="1:178">
+      <x:c r="A71" s="0" t="s">
+        <x:v>189</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:177">
-      <x:c r="A27" s="0" t="s">
-        <x:v>188</x:v>
+    <x:row r="72" spans="1:178">
+      <x:c r="A72" s="0" t="s">
+        <x:v>206</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:177">
-      <x:c r="A28" s="0" t="s">
-        <x:v>189</x:v>
+    <x:row r="73" spans="1:178">
+      <x:c r="A73" s="0" t="s">
+        <x:v>191</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:177">
-      <x:c r="A29" s="0" t="s">
-        <x:v>190</x:v>
+    <x:row r="74" spans="1:178">
+      <x:c r="A74" s="0" t="s">
+        <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="1:177">
-      <x:c r="A30" s="0" t="s">
-        <x:v>189</x:v>
+    <x:row r="75" spans="1:178">
+      <x:c r="A75" s="0" t="s">
+        <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="31" spans="1:177">
-      <x:c r="A31" s="0" t="s">
-        <x:v>191</x:v>
+    <x:row r="76" spans="1:178">
+      <x:c r="A76" s="0" t="s">
+        <x:v>207</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="1:177">
-      <x:c r="A32" s="0" t="s">
-        <x:v>189</x:v>
+    <x:row r="78" spans="1:178">
+      <x:c r="A78" s="0" t="s">
+        <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="34" spans="1:177">
-      <x:c r="A34" s="0" t="s">
+    <x:row r="79" spans="1:178">
+      <x:c r="A79" s="0" t="s">
+        <x:v>208</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:178">
+      <x:c r="A81" s="0" t="s">
         <x:v>192</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:177">
-      <x:c r="A35" s="0" t="s">
-        <x:v>193</x:v>
+    <x:row r="82" spans="1:178">
+      <x:c r="A82" s="0" t="s">
+        <x:v>209</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:177">
-      <x:c r="A37" s="0" t="s">
-        <x:v>194</x:v>
+    <x:row r="85" spans="1:178">
+      <x:c r="A85" s="0" t="s">
+        <x:v>210</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:177">
-      <x:c r="A38" s="0" t="s">
-        <x:v>188</x:v>
+    <x:row r="86" spans="1:178">
+      <x:c r="A86" s="0" t="s">
+        <x:v>211</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:177">
-      <x:c r="A39" s="0" t="s">
-        <x:v>195</x:v>
+    <x:row r="88" spans="1:178">
+      <x:c r="A88" s="0" t="s">
+        <x:v>212</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:177">
-      <x:c r="A40" s="0" t="s">
-        <x:v>196</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:177">
-      <x:c r="A41" s="0" t="s">
-        <x:v>197</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:177">
-      <x:c r="A45" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="47" spans="1:177">
-      <x:c r="A47" s="0" t="s">
-        <x:v>199</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:177">
-      <x:c r="A48" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:177">
-      <x:c r="A49" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:177">
-      <x:c r="A50" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:177">
-      <x:c r="A51" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:177">
-      <x:c r="A52" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:177">
-      <x:c r="A53" s="0" t="s">
-        <x:v>200</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:177">
-      <x:c r="A54" s="0" t="s">
-        <x:v>201</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:177">
-      <x:c r="A55" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:177">
-      <x:c r="A56" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:177">
-      <x:c r="A57" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:177">
-      <x:c r="A58" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:177">
-      <x:c r="A59" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:177">
-      <x:c r="A60" s="0" t="s">
-        <x:v>202</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:177">
-      <x:c r="A62" s="0" t="s">
-        <x:v>203</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="63" spans="1:177">
-      <x:c r="A63" s="0" t="s">
-        <x:v>176</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="64" spans="1:177">
-      <x:c r="A64" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="65" spans="1:177">
-      <x:c r="A65" s="0" t="s">
-        <x:v>183</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:177">
-      <x:c r="A66" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:177">
-      <x:c r="A67" s="0" t="s">
-        <x:v>184</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="68" spans="1:177">
-      <x:c r="A68" s="0" t="s">
-        <x:v>204</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:177">
-      <x:c r="A71" s="0" t="s">
-        <x:v>188</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:177">
-      <x:c r="A72" s="0" t="s">
-        <x:v>205</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:177">
-      <x:c r="A73" s="0" t="s">
-        <x:v>190</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:177">
-      <x:c r="A74" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="1:177">
-      <x:c r="A75" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:177">
-      <x:c r="A76" s="0" t="s">
-        <x:v>206</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:177">
-      <x:c r="A78" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:177">
-      <x:c r="A79" s="0" t="s">
-        <x:v>207</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:177">
-      <x:c r="A81" s="0" t="s">
-        <x:v>191</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:177">
-      <x:c r="A82" s="0" t="s">
-        <x:v>208</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:177">
-      <x:c r="A85" s="0" t="s">
-        <x:v>209</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:177">
-      <x:c r="A86" s="0" t="s">
-        <x:v>210</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:177">
-      <x:c r="A88" s="0" t="s">
-        <x:v>211</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:177">
+    <x:row r="89" spans="1:178">
       <x:c r="A89" s="0" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="2">
+    <x:mergeCell ref="A23:FV23"/>
+    <x:mergeCell ref="A24:FV24"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
